--- a/whole.xlsx
+++ b/whole.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqieru/Desktop/cttest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqieru/Desktop/airproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15860" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1880" windowWidth="28160" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,101 +347,17 @@
     <t>臺中市梧棲區中央路一段160號</t>
   </si>
   <si>
-    <t>dateplot("74DA3895C4C8")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C4A6")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C248")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C4F4")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C4EE")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C4FC")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C4F6")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C25C")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C240")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C246")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C2A6")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C374")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C500")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C24A")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA38AF4774")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA38AF4894")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA38B05240")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C2BA")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C2F2")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C3C2")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C3F0")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C4CE")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C5C6")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C53C")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C324")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C396")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C454")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C532")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895C568")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895E0DE")</t>
-  </si>
-  <si>
-    <t>dateplot("74DA3895E0E0")</t>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74DA3895C4F4</t>
+  </si>
+  <si>
+    <t>台中市甲南國小</t>
+  </si>
+  <si>
+    <t>臺中市清水區臨海路26號</t>
   </si>
 </sst>
 </file>
@@ -773,25 +689,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="9" max="9" width="29.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="3" max="8" width="9.1640625"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -806,7 +722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>31</v>
       </c>
@@ -825,11 +741,8 @@
       <c r="F2">
         <v>120.56100000000001</v>
       </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>33</v>
       </c>
@@ -848,11 +761,8 @@
       <c r="F3">
         <v>120.577</v>
       </c>
-      <c r="I3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -871,11 +781,8 @@
       <c r="F4">
         <v>120.581</v>
       </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -894,11 +801,8 @@
       <c r="F5">
         <v>120.556</v>
       </c>
-      <c r="I5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>30</v>
       </c>
@@ -917,11 +821,8 @@
       <c r="F6">
         <v>120.565</v>
       </c>
-      <c r="I6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -940,11 +841,8 @@
       <c r="F7">
         <v>120.574</v>
       </c>
-      <c r="I7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>23</v>
       </c>
@@ -963,11 +861,8 @@
       <c r="F8">
         <v>120.566</v>
       </c>
-      <c r="I8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -986,11 +881,8 @@
       <c r="F9">
         <v>120.57299999999999</v>
       </c>
-      <c r="I9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>35</v>
       </c>
@@ -1009,11 +901,8 @@
       <c r="F10">
         <v>120.578</v>
       </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1032,11 +921,8 @@
       <c r="F11">
         <v>120.538</v>
       </c>
-      <c r="I11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1055,11 +941,8 @@
       <c r="F12">
         <v>120.55500000000001</v>
       </c>
-      <c r="I12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1078,11 +961,8 @@
       <c r="F13" s="1">
         <v>120.559</v>
       </c>
-      <c r="I13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>25</v>
       </c>
@@ -1101,11 +981,8 @@
       <c r="F14">
         <v>120.56699999999999</v>
       </c>
-      <c r="I14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1124,11 +1001,8 @@
       <c r="F15">
         <v>120.542</v>
       </c>
-      <c r="I15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>16</v>
       </c>
@@ -1147,11 +1021,8 @@
       <c r="F16">
         <v>120.554</v>
       </c>
-      <c r="I16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>26</v>
       </c>
@@ -1170,11 +1041,8 @@
       <c r="F17">
         <v>120.58199999999999</v>
       </c>
-      <c r="I17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1193,11 +1061,8 @@
       <c r="F18">
         <v>120.535</v>
       </c>
-      <c r="I18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>11</v>
       </c>
@@ -1216,11 +1081,8 @@
       <c r="F19" s="1">
         <v>120.532</v>
       </c>
-      <c r="I19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>12</v>
       </c>
@@ -1239,11 +1101,8 @@
       <c r="F20">
         <v>120.526</v>
       </c>
-      <c r="I20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1262,11 +1121,8 @@
       <c r="F21">
         <v>120.55</v>
       </c>
-      <c r="I21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>24</v>
       </c>
@@ -1285,11 +1141,8 @@
       <c r="F22">
         <v>120.56399999999999</v>
       </c>
-      <c r="I22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1308,11 +1161,8 @@
       <c r="F23">
         <v>120.56100000000001</v>
       </c>
-      <c r="I23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>13</v>
       </c>
@@ -1331,11 +1181,8 @@
       <c r="F24">
         <v>120.52200000000001</v>
       </c>
-      <c r="I24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>14</v>
       </c>
@@ -1354,11 +1201,8 @@
       <c r="F25">
         <v>120.547</v>
       </c>
-      <c r="I25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>28</v>
       </c>
@@ -1377,11 +1221,8 @@
       <c r="F26">
         <v>120.547</v>
       </c>
-      <c r="I26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1400,11 +1241,8 @@
       <c r="F27">
         <v>120.56</v>
       </c>
-      <c r="I27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>19</v>
       </c>
@@ -1423,11 +1261,8 @@
       <c r="F28">
         <v>120.544</v>
       </c>
-      <c r="I28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>21</v>
       </c>
@@ -1446,11 +1281,8 @@
       <c r="F29">
         <v>120.574</v>
       </c>
-      <c r="I29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>20</v>
       </c>
@@ -1469,11 +1301,8 @@
       <c r="F30">
         <v>120.56699999999999</v>
       </c>
-      <c r="I30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>18</v>
       </c>
@@ -1492,11 +1321,8 @@
       <c r="F31">
         <v>120.54600000000001</v>
       </c>
-      <c r="I31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>44</v>
       </c>
@@ -1514,9 +1340,6 @@
       </c>
       <c r="F32">
         <v>120.512</v>
-      </c>
-      <c r="I32" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1557,6 +1380,26 @@
       </c>
       <c r="F34">
         <v>120.503</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35">
+        <v>25.062000000000001</v>
+      </c>
+      <c r="F35">
+        <v>121.45099999999999</v>
       </c>
     </row>
   </sheetData>
